--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_18-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_18-27.xlsx
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
   </si>
   <si>
     <t>VALIDO HAIR SERUM 75 ML</t>
@@ -2062,17 +2065,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2088,17 +2091,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2114,17 +2117,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2132,7 +2135,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2140,17 +2143,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2158,7 +2161,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2166,17 +2169,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2184,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2192,7 +2195,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2210,7 +2213,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2218,13 +2221,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2236,7 +2239,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2244,13 +2247,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2270,13 +2273,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2288,7 +2291,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2296,17 +2299,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2314,7 +2317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2322,17 +2325,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2340,7 +2343,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2348,17 +2351,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2374,17 +2377,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2400,17 +2403,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2418,7 +2421,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2426,17 +2429,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2444,7 +2447,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2452,13 +2455,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2470,7 +2473,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2478,17 +2481,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2504,51 +2507,77 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="26.25" customHeight="1">
-      <c r="K67" s="11">
-        <v>5361.1700000000001</v>
-      </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
         <v>96</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c t="s" r="F68" s="13">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>84</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="K68" s="11">
+        <v>5391.1700000000001</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c t="s" r="A69" s="12">
         <v>97</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
-      <c t="s" r="I68" s="15">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c t="s" r="F69" s="13">
         <v>98</v>
       </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
+      <c t="s" r="I69" s="15">
+        <v>99</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="203">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2745,10 +2774,13 @@
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:N68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:N69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
